--- a/biology/Zoologie/Cervidae/Cervidae.xlsx
+++ b/biology/Zoologie/Cervidae/Cervidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cervidés (Cervidae, du latin cervus « cerf », apparenté au grec κεραός / keraos, « cornu ») forment une famille de mammifères ruminants présentant un nombre pair de doigts. Elle comprend notamment les cerfs, les chevreuils, les rennes, les élans et les daims, ainsi que des espèces moins connues comme les pudus ou les hydropotes.
 </t>
@@ -511,7 +523,9 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le mot « faon » peut désigner le jeune de différentes espèces, notamment celui du cerf, du chevreuil, du daim, du renne.
 Le hère est un jeune cerf de six mois à un an, qui ne porte pas encore de bois.
@@ -548,12 +562,14 @@
           <t>Principales caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La particularité des cervidés est de porter des bois, des organes osseux caducs présents sur la tête des mâles. Il existe toutefois quelques exceptions :
 chez les rennes, les deux sexes portent des bois ;
 chez certaines espèces, les bois sont absents (Hydropotes inermis), ou à l'état de vestiges (genres Pudu et Mazama).
-Les bois des cervidés forment un trophée (terme cynégétique employé aussi bien pour la parure sur l'animal vivant, que dans le sens plus connu de trophée de chasse). Ils muent chaque année ; le produit de la mue (les bois morts délaissés) s'appelle la « mue »[1].
+Les bois des cervidés forment un trophée (terme cynégétique employé aussi bien pour la parure sur l'animal vivant, que dans le sens plus connu de trophée de chasse). Ils muent chaque année ; le produit de la mue (les bois morts délaissés) s'appelle la « mue ».
 Les cervidés constituent les derniers grands ruminants sauvages des régions tempérées. À travers le monde, il en existe quarante-quatre espèces réparties en dix-sept genres.
 Les cervidés les plus fréquents dans les forêts d'Europe sont le cerf élaphe (Cervus elaphus), le chevreuil (Capreolus capreolus) et le daim (Dama dama). En Scandinavie, s'y ajoutent le renne (Rangifer tarandus) et l'élan (Alces alces), également présent en Europe centrale. D'autres espèces ont été acclimatées en Europe et peuvent s'y rencontrer occasionnellement, comme le cerf sika (Cervus nippon).
 Ils sont nettement divisés en deux ensembles phylogénétiquement cohérents : l'un, paléarctique et indomalaise : cervidés européens ; l'autre, néarctique et néotropicale : cervidés américains. Trois espèces seulement échappent à la règle, avec une répartition holarctique : le cerf élaphe, ou wapiti, en Amérique, le renne, ou caribou et l'élan, ou orignal.
@@ -588,8 +604,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Listes des espèces
-Ils sont divisés en deux sous-familles :
+          <t>Listes des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ils sont divisés en deux sous-familles :
 Sous-famille des Capreolinae :
 Tribu Capreolini
 genre Hydropotes
@@ -674,82 +695,86 @@
 Muntiacus truongsonensis
 Muntiacus vuquangensis
 genre Elaphodus
-Elaphodus cephalophus
-Phylogénie externe
-Phylogénie des familles des Cétartiodactyles actuels (Cétacés non développés)[2],[3],[4] :
-Phylogénie interne
-Systématique interne des cervidés selon Heckeberg 2020 (ADNmt et ADN nucléaire combinés)[5]
+Elaphodus cephalophus</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cervidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cervidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phylogénie externe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des familles des Cétartiodactyles actuels (Cétacés non développés) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cervidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cervidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Phylogénie interne</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Systématique interne des cervidés selon Heckeberg 2020 (ADNmt et ADN nucléaire combinés)
 Un cladogramme purement mitochondrial montre les différences suivantes :
 la position de l'orignal est basale dans les capreolinae,
 la position du pudu du nord (Pudu mephistophiles) est basale dans les blastocerina.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cervidae</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cervidae</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Maladie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Maladie débilitante chronique (ou encéphalopathie des cervidés).
-Certains cervidés (en zone tempérée de l'hémisphère nord) semblent être des espèces réservoir importantes de la maladie de Lyme, en lien avec les tiques (espèces-vectrices) qui les infestent (surtout pour les tiques adultes, les nymphes préférant faire leur repas de chair sur des animaux plus petits, tels que la souris à pattes blanches en Amérique du Nord)[6],[7],[8].</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cervidae</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cervidae</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Le cerf et les humains</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Iconographie
-Les cervidés figurent parmi les animaux les plus représentés du bestiaire pariétal paléolithique[9].
-Dans l'iconographie antique, la biche figure aux côtés d'Artémis ou de Diane chasseresse, le cerf, dans les scènes de chasse et les représentations d'Actéon. La peau des Cervidés, appelée nébride, est un attribut du culte de Dionysos.
-Dans l'iconographie chrétienne, le cerf est un symbole du Christ[10] de Julien l'Hospitalier[10]. Un cerf crucifère accompagne les représentations de saint Hubert, patron des chasseurs[10] ou de saint Eustache. Le cerf est présent dans certaines représentations du paradis terrestre, et celles de l'entrée des animaux dans l'arche de Noé.
-Dans l'art profane, le cerf figure dans les scènes de chasse. Avec le loup et le chien, il représente la mélancolie dans les représentations des tempéraments ou des humeurs[11].</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
@@ -771,12 +796,86 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Maladie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Maladie débilitante chronique (ou encéphalopathie des cervidés).
+Certains cervidés (en zone tempérée de l'hémisphère nord) semblent être des espèces réservoir importantes de la maladie de Lyme, en lien avec les tiques (espèces-vectrices) qui les infestent (surtout pour les tiques adultes, les nymphes préférant faire leur repas de chair sur des animaux plus petits, tels que la souris à pattes blanches en Amérique du Nord).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cervidae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cervidae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Le cerf et les humains</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Iconographie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les cervidés figurent parmi les animaux les plus représentés du bestiaire pariétal paléolithique.
+Dans l'iconographie antique, la biche figure aux côtés d'Artémis ou de Diane chasseresse, le cerf, dans les scènes de chasse et les représentations d'Actéon. La peau des Cervidés, appelée nébride, est un attribut du culte de Dionysos.
+Dans l'iconographie chrétienne, le cerf est un symbole du Christ de Julien l'Hospitalier. Un cerf crucifère accompagne les représentations de saint Hubert, patron des chasseurs ou de saint Eustache. Le cerf est présent dans certaines représentations du paradis terrestre, et celles de l'entrée des animaux dans l'arche de Noé.
+Dans l'art profane, le cerf figure dans les scènes de chasse. Avec le loup et le chien, il représente la mélancolie dans les représentations des tempéraments ou des humeurs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cervidae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cervidae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Malgré l’orthographe du mot en français, le terme « cerf-volant » n’a probablement pas de lien avec le « cerf », mais signifierait « serpent volant » (ancien français serp-volante)[12].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malgré l’orthographe du mot en français, le terme « cerf-volant » n’a probablement pas de lien avec le « cerf », mais signifierait « serpent volant » (ancien français serp-volante).
 </t>
         </is>
       </c>
